--- a/biology/Médecine/ISO_13485/ISO_13485.xlsx
+++ b/biology/Médecine/ISO_13485/ISO_13485.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La norme ISO 13485 précise les exigences des systèmes de management de la qualité (SMQ) pour l'industrie des dispositifs médicaux.
 Elle s'appuie sur les exigences de la norme plus générale ISO 9001:2015, dans le contexte de cette industrie.
@@ -522,9 +534,11 @@
           <t>Versions</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La version en vigueur ISO 13485:2016 est parue en février 2016[1]. Historiquement, il s'agissait de la Norme EN 46001, remplacée en 1996 par la première version de l'ISO 13485, laquelle avait subi une première modification en 2003. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La version en vigueur ISO 13485:2016 est parue en février 2016. Historiquement, il s'agissait de la Norme EN 46001, remplacée en 1996 par la première version de l'ISO 13485, laquelle avait subi une première modification en 2003. 
 Par rapport à cette version de 2003, il n'y a aucune modification dans le corps de la norme. Ce sont les annexes ZA, ZB et ZC qui expliquent de manière plus explicite l'obligation pour les dispositifs médicaux de se conformer également aux exigences réglementaires (directives 90/385 (modifiée par 2007/47), 93/42, 98/79).
 </t>
         </is>
@@ -555,6 +569,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
